--- a/ParametricGraph/BenchMultiFunctionx10.xlsx
+++ b/ParametricGraph/BenchMultiFunctionx10.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="K1">
-        <v>3.2535671349999999</v>
+        <v>8.2535671350000008</v>
       </c>
       <c r="L1">
-        <v>-3.2535671349999999</v>
+        <v>2.2535671349999999</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>

--- a/ParametricGraph/BenchMultiFunctionx10.xlsx
+++ b/ParametricGraph/BenchMultiFunctionx10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +212,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +247,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -413,14 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
@@ -433,7 +443,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +471,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9810</v>
       </c>
@@ -473,12 +483,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -517,7 +527,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -555,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -593,7 +603,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -616,7 +626,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>0.6</v>
       </c>
@@ -634,7 +644,7 @@
         <v>3.2535671346761657</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>0.8</v>
       </c>
@@ -652,8 +662,8 @@
   <conditionalFormatting sqref="E1:E3 D4:D9 E11:E1048576">
     <cfRule type="dataBar" priority="4">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -661,8 +671,8 @@
   <conditionalFormatting sqref="F4:F9 N8">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -670,8 +680,8 @@
   <conditionalFormatting sqref="J4:J9">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -679,8 +689,8 @@
   <conditionalFormatting sqref="L4:L9">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -691,12 +701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -704,12 +714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
